--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Spon2-Itgam.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Spon2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Spon2</t>
   </si>
   <si>
     <t>Itgam</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.584981976284374</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H2">
-        <v>0.584981976284374</v>
+        <v>2.006868</v>
       </c>
       <c r="I2">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J2">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>146.433606223121</v>
+        <v>0.142723</v>
       </c>
       <c r="N2">
-        <v>146.433606223121</v>
+        <v>0.428169</v>
       </c>
       <c r="O2">
-        <v>0.5086671177303524</v>
+        <v>0.000470790275435748</v>
       </c>
       <c r="P2">
-        <v>0.5086671177303524</v>
+        <v>0.0004707902754357479</v>
       </c>
       <c r="Q2">
-        <v>85.66102036284911</v>
+        <v>0.09547540718800003</v>
       </c>
       <c r="R2">
-        <v>85.66102036284911</v>
+        <v>0.8592786646920002</v>
       </c>
       <c r="S2">
-        <v>0.06765675496962027</v>
+        <v>6.116766617158721E-05</v>
       </c>
       <c r="T2">
-        <v>0.06765675496962027</v>
+        <v>6.116766617158719E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.584981976284374</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H3">
-        <v>0.584981976284374</v>
+        <v>2.006868</v>
       </c>
       <c r="I3">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J3">
-        <v>0.1330079193471388</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>141.443477077448</v>
+        <v>148.0881626666667</v>
       </c>
       <c r="N3">
-        <v>141.443477077448</v>
+        <v>444.264488</v>
       </c>
       <c r="O3">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272602</v>
       </c>
       <c r="P3">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272601</v>
       </c>
       <c r="Q3">
-        <v>82.74188475329908</v>
+        <v>99.06446494484268</v>
       </c>
       <c r="R3">
-        <v>82.74188475329908</v>
+        <v>891.5801845035842</v>
       </c>
       <c r="S3">
-        <v>0.06535116437751853</v>
+        <v>0.06346704664250591</v>
       </c>
       <c r="T3">
-        <v>0.06535116437751853</v>
+        <v>0.06346704664250589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.81311686742149</v>
+        <v>0.6689560000000001</v>
       </c>
       <c r="H4">
-        <v>3.81311686742149</v>
+        <v>2.006868</v>
       </c>
       <c r="I4">
-        <v>0.8669920806528612</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="J4">
-        <v>0.8669920806528612</v>
+        <v>0.1299255090071103</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>146.433606223121</v>
+        <v>154.9253336666667</v>
       </c>
       <c r="N4">
-        <v>146.433606223121</v>
+        <v>464.776001</v>
       </c>
       <c r="O4">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973043</v>
       </c>
       <c r="P4">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973042</v>
       </c>
       <c r="Q4">
-        <v>558.3684538467392</v>
+        <v>103.6382315083187</v>
       </c>
       <c r="R4">
-        <v>558.3684538467392</v>
+        <v>932.744083574868</v>
       </c>
       <c r="S4">
-        <v>0.4410103627607321</v>
+        <v>0.06639729469843281</v>
       </c>
       <c r="T4">
-        <v>0.4410103627607321</v>
+        <v>0.06639729469843279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.996041333333333</v>
+      </c>
+      <c r="H5">
+        <v>11.988124</v>
+      </c>
+      <c r="I5">
+        <v>0.776116372746167</v>
+      </c>
+      <c r="J5">
+        <v>0.7761163727461668</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.142723</v>
+      </c>
+      <c r="N5">
+        <v>0.428169</v>
+      </c>
+      <c r="O5">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P5">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q5">
+        <v>0.5703270072173333</v>
+      </c>
+      <c r="R5">
+        <v>5.132943064956</v>
+      </c>
+      <c r="S5">
+        <v>0.0003653880408953616</v>
+      </c>
+      <c r="T5">
+        <v>0.0003653880408953615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.996041333333333</v>
+      </c>
+      <c r="H6">
+        <v>11.988124</v>
+      </c>
+      <c r="I6">
+        <v>0.776116372746167</v>
+      </c>
+      <c r="J6">
+        <v>0.7761163727461668</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N6">
+        <v>444.264488</v>
+      </c>
+      <c r="O6">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P6">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q6">
+        <v>591.7664189933902</v>
+      </c>
+      <c r="R6">
+        <v>5325.897770940512</v>
+      </c>
+      <c r="S6">
+        <v>0.3791235024247456</v>
+      </c>
+      <c r="T6">
+        <v>0.3791235024247455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.996041333333333</v>
+      </c>
+      <c r="H7">
+        <v>11.988124</v>
+      </c>
+      <c r="I7">
+        <v>0.776116372746167</v>
+      </c>
+      <c r="J7">
+        <v>0.7761163727461668</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N7">
+        <v>464.776001</v>
+      </c>
+      <c r="O7">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P7">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q7">
+        <v>619.0880369124582</v>
+      </c>
+      <c r="R7">
+        <v>5571.792332212123</v>
+      </c>
+      <c r="S7">
+        <v>0.3966274822805262</v>
+      </c>
+      <c r="T7">
+        <v>0.396627482280526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.81311686742149</v>
-      </c>
-      <c r="H5">
-        <v>3.81311686742149</v>
-      </c>
-      <c r="I5">
-        <v>0.8669920806528612</v>
-      </c>
-      <c r="J5">
-        <v>0.8669920806528612</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>141.443477077448</v>
-      </c>
-      <c r="N5">
-        <v>141.443477077448</v>
-      </c>
-      <c r="O5">
-        <v>0.4913328822696476</v>
-      </c>
-      <c r="P5">
-        <v>0.4913328822696476</v>
-      </c>
-      <c r="Q5">
-        <v>539.3405082307619</v>
-      </c>
-      <c r="R5">
-        <v>539.3405082307619</v>
-      </c>
-      <c r="S5">
-        <v>0.4259817178921291</v>
-      </c>
-      <c r="T5">
-        <v>0.4259817178921291</v>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.452236</v>
+      </c>
+      <c r="I8">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J8">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.142723</v>
+      </c>
+      <c r="N8">
+        <v>0.428169</v>
+      </c>
+      <c r="O8">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P8">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q8">
+        <v>0.02151482620933333</v>
+      </c>
+      <c r="R8">
+        <v>0.193633435884</v>
+      </c>
+      <c r="S8">
+        <v>1.378377684968514E-05</v>
+      </c>
+      <c r="T8">
+        <v>1.378377684968513E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.452236</v>
+      </c>
+      <c r="I9">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J9">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N9">
+        <v>444.264488</v>
+      </c>
+      <c r="O9">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P9">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q9">
+        <v>22.32359944390755</v>
+      </c>
+      <c r="R9">
+        <v>200.912394995168</v>
+      </c>
+      <c r="S9">
+        <v>0.01430192882911098</v>
+      </c>
+      <c r="T9">
+        <v>0.01430192882911098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1507453333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.452236</v>
+      </c>
+      <c r="I10">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="J10">
+        <v>0.02927795574563923</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N10">
+        <v>464.776001</v>
+      </c>
+      <c r="O10">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P10">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q10">
+        <v>23.35427106535955</v>
+      </c>
+      <c r="R10">
+        <v>210.188439588236</v>
+      </c>
+      <c r="S10">
+        <v>0.01496224313967857</v>
+      </c>
+      <c r="T10">
+        <v>0.01496224313967857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.201677</v>
+      </c>
+      <c r="I11">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J11">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.142723</v>
+      </c>
+      <c r="N11">
+        <v>0.428169</v>
+      </c>
+      <c r="O11">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P11">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q11">
+        <v>0.009594648823666669</v>
+      </c>
+      <c r="R11">
+        <v>0.08635183941300001</v>
+      </c>
+      <c r="S11">
+        <v>6.146947088940175E-06</v>
+      </c>
+      <c r="T11">
+        <v>6.146947088940174E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.201677</v>
+      </c>
+      <c r="I12">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J12">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N12">
+        <v>444.264488</v>
+      </c>
+      <c r="O12">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P12">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q12">
+        <v>9.955325460708446</v>
+      </c>
+      <c r="R12">
+        <v>89.597929146376</v>
+      </c>
+      <c r="S12">
+        <v>0.006378019663336434</v>
+      </c>
+      <c r="T12">
+        <v>0.006378019663336432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.201677</v>
+      </c>
+      <c r="I13">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="J13">
+        <v>0.01305665688028658</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N13">
+        <v>464.776001</v>
+      </c>
+      <c r="O13">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P13">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q13">
+        <v>10.41495883929744</v>
+      </c>
+      <c r="R13">
+        <v>93.73462955367698</v>
+      </c>
+      <c r="S13">
+        <v>0.006672490269861213</v>
+      </c>
+      <c r="T13">
+        <v>0.006672490269861211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.797392</v>
+      </c>
+      <c r="I14">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J14">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.142723</v>
+      </c>
+      <c r="N14">
+        <v>0.428169</v>
+      </c>
+      <c r="O14">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P14">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q14">
+        <v>0.03793539280533334</v>
+      </c>
+      <c r="R14">
+        <v>0.341418535248</v>
+      </c>
+      <c r="S14">
+        <v>2.430384443017392E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.43038444301739E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.797392</v>
+      </c>
+      <c r="I15">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J15">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N15">
+        <v>444.264488</v>
+      </c>
+      <c r="O15">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P15">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q15">
+        <v>39.36143873503289</v>
+      </c>
+      <c r="R15">
+        <v>354.252948615296</v>
+      </c>
+      <c r="S15">
+        <v>0.02521746086756133</v>
+      </c>
+      <c r="T15">
+        <v>0.02521746086756132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2657973333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.797392</v>
+      </c>
+      <c r="I16">
+        <v>0.05162350562079702</v>
+      </c>
+      <c r="J16">
+        <v>0.05162350562079701</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N16">
+        <v>464.776001</v>
+      </c>
+      <c r="O16">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P16">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q16">
+        <v>41.17874055437689</v>
+      </c>
+      <c r="R16">
+        <v>370.608664989392</v>
+      </c>
+      <c r="S16">
+        <v>0.02638174090880553</v>
+      </c>
+      <c r="T16">
+        <v>0.02638174090880552</v>
       </c>
     </row>
   </sheetData>
